--- a/openxlsx_Test1.xlsx
+++ b/openxlsx_Test1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Sepal.Length</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">This is a boring plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_plot.png</t>
   </si>
 </sst>
 </file>
@@ -131,6 +128,41 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">6</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5486400" cy="3657600"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
@@ -166,8 +198,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:F152" totalsRowCount="0" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B2:F152" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="B2:F152"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Sepal.Length"/>
@@ -3052,8 +3084,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3092,9 +3125,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1h"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
